--- a/Template/BPC/BPC_Register.xlsx
+++ b/Template/BPC/BPC_Register.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Click</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,9 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.//*[@id='TFMnNk']</t>
-  </si>
-  <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,12 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.//*[@id='wSELC5']</t>
-  </si>
-  <si>
-    <t>.//*[@id='Pf8wLG']</t>
-  </si>
-  <si>
     <t>确认密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,9 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.//*[@id='gjbxKD']</t>
-  </si>
-  <si>
     <t>$Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +184,35 @@
   <si>
     <t>$UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait for time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$WaitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html/body/div[6]/div/div[2]/div[1]/form/div[1]/div/div/div[1]/table/tbody/tr/td[1]/input</t>
+  </si>
+  <si>
+    <t>html/body/div[6]/div/div[2]/div[1]/form/div[1]/div/div/div[2]/table/tbody/tr/td[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html/body/div[6]/div/div[2]/div[1]/form/div[1]/div/div/div[3]/table/tbody/tr/td[1]/input</t>
+  </si>
+  <si>
+    <t>html/body/div[6]/div/div[2]/div[1]/form/div[1]/div/div/div[4]/table/tbody/tr/td[1]/input</t>
   </si>
 </sst>
 </file>
@@ -579,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -645,51 +662,51 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="28.5">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="71.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
+      <c r="G4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -698,22 +715,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -722,22 +739,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -746,65 +763,83 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="54">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="57">
+    <row r="9" spans="1:8" ht="54">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="57">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
